--- a/Doc/Смета.xlsx
+++ b/Doc/Смета.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="New generation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>Средняя стоимость программиста C#/Java в Украине:</t>
   </si>
@@ -685,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -976,6 +977,356 @@
       <c r="E26" s="27">
         <f>(D18-C26)/11</f>
         <v>191.37396694214877</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="285" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1">
+        <f>C2*(30-8)</f>
+        <v>1760</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <f>C3*8</f>
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13">
+        <f>C7*$C$3</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13">
+        <f>C8*$C$3</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13">
+        <f>C9*$C$3</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12">
+        <v>40</v>
+      </c>
+      <c r="D10" s="13">
+        <f>C10*$C$3</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12">
+        <v>30</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" ref="D11:D12" si="0">C11*$C$3</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12">
+        <v>8</v>
+      </c>
+      <c r="D14" s="13">
+        <f>C14*$C$3</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="12">
+        <v>8</v>
+      </c>
+      <c r="D15" s="13">
+        <f>C15*$C$3</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="12">
+        <v>60</v>
+      </c>
+      <c r="D16" s="13">
+        <f>C16*$C$3</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="12">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13">
+        <f>C17*$C$3</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="19">
+        <f>SUM(C6:C17)</f>
+        <v>247</v>
+      </c>
+      <c r="D18" s="24">
+        <f>SUM(D6:D17)</f>
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="22">
+        <v>4</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="23">
+        <f>C18/C20</f>
+        <v>61.75</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="27">
+        <f>D18</f>
+        <v>2470</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="27">
+        <f>D18*0.25</f>
+        <v>617.5</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="27">
+        <f>D18*0.25</f>
+        <v>617.5</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0</v>
+      </c>
+      <c r="E26" s="27">
+        <f>(D18-C26)/11</f>
+        <v>168.40909090909091</v>
       </c>
     </row>
   </sheetData>
